--- a/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DB0C15-CFF5-4483-8F8A-BA1C2DCAAF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB82D6BB-7B55-449B-9913-2ACF529607FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{988D41F6-8748-4A08-9927-A150A91CB39D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA8E8075-6133-4ED0-98BC-0F77044B7988}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="562">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1600 +77,1654 @@
     <t>3,99%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>96,1%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AF1C75-9AD7-4E01-A372-1B3B95E210C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116387A6-4699-40D0-9537-240031E6B6C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2689,10 +2743,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2701,13 +2755,13 @@
         <v>21832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2776,13 @@
         <v>349077</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -2737,13 +2791,13 @@
         <v>358161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>725</v>
@@ -2752,13 +2806,13 @@
         <v>707237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2868,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2826,13 +2880,13 @@
         <v>6823</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2841,13 +2895,13 @@
         <v>10731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2856,13 +2910,13 @@
         <v>17554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2931,13 @@
         <v>193073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2892,13 +2946,13 @@
         <v>191020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -2907,13 +2961,13 @@
         <v>384093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +3023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2981,13 +3035,13 @@
         <v>4618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2996,13 +3050,13 @@
         <v>8875</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3011,13 +3065,13 @@
         <v>13493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3086,13 @@
         <v>265174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3047,13 +3101,13 @@
         <v>269269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3062,13 +3116,13 @@
         <v>534443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3178,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3136,13 +3190,13 @@
         <v>31361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -3151,13 +3205,13 @@
         <v>54350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3166,13 +3220,13 @@
         <v>85711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3241,13 @@
         <v>582680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>574</v>
@@ -3202,13 +3256,13 @@
         <v>583869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1141</v>
@@ -3217,13 +3271,13 @@
         <v>1166549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3333,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3291,13 +3345,13 @@
         <v>43418</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3306,13 +3360,13 @@
         <v>42910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3321,13 +3375,13 @@
         <v>86329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3396,13 @@
         <v>696431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -3357,13 +3411,13 @@
         <v>737603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3372,13 +3426,13 @@
         <v>1434033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3500,13 @@
         <v>157307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -3461,13 +3515,13 @@
         <v>201060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -3476,13 +3530,13 @@
         <v>358366</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3551,13 @@
         <v>3108815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3100</v>
@@ -3512,13 +3566,13 @@
         <v>3169222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6158</v>
@@ -3527,13 +3581,13 @@
         <v>6278038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3643,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB19CFB6-C241-4B11-86D1-C17B6B296264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD240C2-3D47-4599-B815-41DF49D41824}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3735,39 +3789,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,39 +3834,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,39 +3879,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3928,13 @@
         <v>35174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3889,13 +3943,13 @@
         <v>28340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3904,13 +3958,13 @@
         <v>63514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3979,13 @@
         <v>468310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -3940,13 +3994,13 @@
         <v>491346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -3955,13 +4009,13 @@
         <v>959656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,10 +4086,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4044,13 +4098,13 @@
         <v>15150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4059,13 +4113,13 @@
         <v>26749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4134,13 @@
         <v>312447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4095,13 +4149,13 @@
         <v>325870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4110,13 +4164,13 @@
         <v>638317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,10 +4241,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4199,13 +4253,13 @@
         <v>35092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4214,13 +4268,13 @@
         <v>72246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +4292,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4250,13 +4304,13 @@
         <v>634751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1171</v>
@@ -4265,13 +4319,13 @@
         <v>1259009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4339,13 +4393,13 @@
         <v>8149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4354,13 +4408,13 @@
         <v>13378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4369,13 +4423,13 @@
         <v>21527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4444,13 @@
         <v>204469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4405,13 +4459,13 @@
         <v>206213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4420,13 +4474,13 @@
         <v>410682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4548,13 @@
         <v>5128</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4509,13 +4563,13 @@
         <v>10669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4524,13 +4578,13 @@
         <v>15797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4599,13 @@
         <v>268853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4560,13 +4614,13 @@
         <v>268316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4575,13 +4629,13 @@
         <v>537169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4691,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4703,13 @@
         <v>30828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -4664,13 +4718,13 @@
         <v>63690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -4679,13 +4733,13 @@
         <v>94518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4754,13 @@
         <v>628652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
@@ -4715,13 +4769,13 @@
         <v>628090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1164</v>
@@ -4730,13 +4784,13 @@
         <v>1256742</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4804,13 +4858,13 @@
         <v>34318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4819,13 +4873,13 @@
         <v>53381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -4834,13 +4888,13 @@
         <v>87698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4909,13 @@
         <v>744780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -4870,13 +4924,13 @@
         <v>769395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -4885,13 +4939,13 @@
         <v>1514177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +5013,13 @@
         <v>162350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -4974,13 +5028,13 @@
         <v>219699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>361</v>
@@ -4989,13 +5043,13 @@
         <v>382049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5064,13 @@
         <v>3251770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
@@ -5025,13 +5079,13 @@
         <v>3323982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>6121</v>
@@ -5040,13 +5094,13 @@
         <v>6575751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5156,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71248F54-BF34-42FF-94E2-C82B7BDA6AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7D9B7-714E-4DFA-B6EB-376981293289}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5143,7 +5197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5250,13 +5304,13 @@
         <v>24849</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5265,13 +5319,13 @@
         <v>22923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5280,13 +5334,13 @@
         <v>47773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5355,13 @@
         <v>267925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5316,13 +5370,13 @@
         <v>263518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>499</v>
@@ -5331,13 +5385,13 @@
         <v>531442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5459,13 @@
         <v>34814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5420,13 +5474,13 @@
         <v>35058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5435,13 +5489,13 @@
         <v>69872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5510,13 @@
         <v>465880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5471,13 +5525,13 @@
         <v>488026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -5486,13 +5540,13 @@
         <v>953906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5614,13 @@
         <v>5304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5575,13 +5629,13 @@
         <v>13897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5590,13 +5644,13 @@
         <v>19201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5665,13 @@
         <v>308607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -5626,13 +5680,13 @@
         <v>314494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -5641,13 +5695,13 @@
         <v>623101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5769,13 @@
         <v>29314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5730,13 +5784,13 @@
         <v>20694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5745,13 +5799,13 @@
         <v>50008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5820,13 @@
         <v>338995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
@@ -5781,13 +5835,13 @@
         <v>366589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5796,13 +5850,13 @@
         <v>705584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5912,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5870,13 +5924,13 @@
         <v>5867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5885,13 +5939,13 @@
         <v>7149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5900,13 +5954,13 @@
         <v>13016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5975,13 @@
         <v>203319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5936,28 +5990,28 @@
         <v>210438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
       </c>
       <c r="N17" s="7">
-        <v>413756</v>
+        <v>413757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +6053,7 @@
         <v>432</v>
       </c>
       <c r="N18" s="7">
-        <v>426772</v>
+        <v>426773</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6013,7 +6067,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6025,13 +6079,13 @@
         <v>2937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6040,13 +6094,13 @@
         <v>1763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6055,13 +6109,13 @@
         <v>4700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6130,13 @@
         <v>260186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -6091,13 +6145,13 @@
         <v>270445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -6106,13 +6160,13 @@
         <v>530631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6222,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6180,13 +6234,13 @@
         <v>20351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6195,13 +6249,13 @@
         <v>26265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6210,13 +6264,13 @@
         <v>46616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6285,13 @@
         <v>629921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6246,13 +6300,13 @@
         <v>659944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>1174</v>
@@ -6261,13 +6315,13 @@
         <v>1289865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,7 +6377,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6335,13 +6389,13 @@
         <v>21687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6350,13 +6404,13 @@
         <v>32566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -6365,13 +6419,13 @@
         <v>54252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6440,13 @@
         <v>755048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>400</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>724</v>
@@ -6401,13 +6455,13 @@
         <v>792442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>28</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -6416,13 +6470,13 @@
         <v>1547491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6544,13 @@
         <v>145123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -6505,13 +6559,13 @@
         <v>160315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6520,13 +6574,13 @@
         <v>305438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>411</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6595,13 @@
         <v>3229881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6556,13 +6610,13 @@
         <v>3365896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>415</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>6249</v>
@@ -6571,13 +6625,13 @@
         <v>6595778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>419</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>43</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6687,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6657,7 +6711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FF5465-9BE9-43B3-AA9B-070A104B4195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F22533-9088-467C-ABBF-3AF5C42883AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6674,7 +6728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6781,13 +6835,13 @@
         <v>798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6796,13 +6850,13 @@
         <v>8397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6811,13 +6865,13 @@
         <v>9194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6886,13 @@
         <v>259500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -6847,13 +6901,13 @@
         <v>263006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -6862,13 +6916,13 @@
         <v>522506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6990,13 @@
         <v>24380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -6951,13 +7005,13 @@
         <v>17041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>440</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -6966,13 +7020,13 @@
         <v>41421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +7041,13 @@
         <v>493691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="H8" s="7">
         <v>688</v>
@@ -7002,13 +7056,13 @@
         <v>534496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>446</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -7017,13 +7071,13 @@
         <v>1028187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>449</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7145,13 @@
         <v>13908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7106,13 +7160,13 @@
         <v>14235</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7121,13 +7175,13 @@
         <v>28143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7196,13 @@
         <v>296542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -7157,13 +7211,13 @@
         <v>346284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -7172,13 +7226,13 @@
         <v>642827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7300,13 @@
         <v>320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7261,13 +7315,13 @@
         <v>4010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7276,13 +7330,13 @@
         <v>4329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7351,13 @@
         <v>321046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7312,28 +7366,28 @@
         <v>421823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>742871</v>
+        <v>742870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,7 +7429,7 @@
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>747200</v>
+        <v>747199</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7389,7 +7443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7401,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7416,13 +7470,13 @@
         <v>2760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7431,13 +7485,13 @@
         <v>2760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,10 +7506,10 @@
         <v>196748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7467,13 +7521,13 @@
         <v>256753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7">
         <v>770</v>
@@ -7482,13 +7536,13 @@
         <v>453500</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,7 +7598,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7556,13 +7610,13 @@
         <v>5660</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7571,13 +7625,13 @@
         <v>5913</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7586,13 +7640,13 @@
         <v>11573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>500</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7661,13 @@
         <v>270672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -7622,13 +7676,13 @@
         <v>269709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7637,13 +7691,13 @@
         <v>540381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,7 +7753,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7711,13 +7765,13 @@
         <v>25018</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7726,28 +7780,28 @@
         <v>31095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>56113</v>
+        <v>56112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7816,13 @@
         <v>595077</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="H23" s="7">
         <v>904</v>
@@ -7777,13 +7831,13 @@
         <v>765189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>527</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7792,13 +7846,13 @@
         <v>1360266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7894,7 @@
         <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1416379</v>
+        <v>1416378</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7854,7 +7908,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7866,13 +7920,13 @@
         <v>8747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -7881,13 +7935,13 @@
         <v>11533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -7896,13 +7950,13 @@
         <v>20280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>499</v>
+        <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7971,13 @@
         <v>844005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -7932,13 +7986,13 @@
         <v>844479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>1779</v>
@@ -7947,13 +8001,13 @@
         <v>1688484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8075,13 @@
         <v>78831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
@@ -8036,13 +8090,13 @@
         <v>94983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>383</v>
+        <v>547</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="M28" s="7">
         <v>222</v>
@@ -8051,13 +8105,13 @@
         <v>173814</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>551</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,28 +8126,28 @@
         <v>3277281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H29" s="7">
         <v>5176</v>
       </c>
       <c r="I29" s="7">
-        <v>3701740</v>
+        <v>3701739</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>390</v>
+        <v>556</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>8441</v>
@@ -8102,13 +8156,13 @@
         <v>6979020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,7 +8189,7 @@
         <v>5315</v>
       </c>
       <c r="I30" s="7">
-        <v>3796723</v>
+        <v>3796722</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8164,7 +8218,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB82D6BB-7B55-449B-9913-2ACF529607FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9C06A7-51FF-441F-A1CE-4C681667401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA8E8075-6133-4ED0-98BC-0F77044B7988}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4DCDAC-7C58-44BA-8C07-26D48B283589}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="530">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1599 +77,1509 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
@@ -1682,9 +1592,6 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
@@ -1707,9 +1614,6 @@
   </si>
   <si>
     <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -2136,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116387A6-4699-40D0-9537-240031E6B6C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1031BF6D-7B53-43B1-9189-ABF7D4C113A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2731,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2740,13 +2644,13 @@
         <v>13295</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2755,13 +2659,13 @@
         <v>21832</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2680,13 @@
         <v>349077</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -2791,13 +2695,13 @@
         <v>358161</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>725</v>
@@ -2806,13 +2710,13 @@
         <v>707237</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2772,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2880,13 +2784,13 @@
         <v>6823</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2895,13 +2799,13 @@
         <v>10731</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2910,13 +2814,13 @@
         <v>17554</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2835,13 @@
         <v>193073</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2946,13 +2850,13 @@
         <v>191020</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -2961,13 +2865,13 @@
         <v>384093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,7 +2927,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3035,13 +2939,13 @@
         <v>4618</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3050,13 +2954,13 @@
         <v>8875</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3065,13 +2969,13 @@
         <v>13493</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +2990,13 @@
         <v>265174</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3101,10 +3005,10 @@
         <v>269269</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>120</v>
@@ -3360,13 +3264,13 @@
         <v>42910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3375,13 +3279,13 @@
         <v>86329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3300,13 @@
         <v>696431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -3411,13 +3315,13 @@
         <v>737603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3426,13 +3330,13 @@
         <v>1434033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3404,13 @@
         <v>157307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -3521,7 +3425,7 @@
         <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -3530,13 +3434,13 @@
         <v>358366</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3455,13 @@
         <v>3108815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3100</v>
@@ -3566,13 +3470,13 @@
         <v>3169222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6158</v>
@@ -3581,13 +3485,13 @@
         <v>6278038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3547,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD240C2-3D47-4599-B815-41DF49D41824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD839EB2-8A93-4597-944D-1B5606238082}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3684,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3789,39 +3693,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,39 +3738,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,39 +3783,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3832,13 @@
         <v>35174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3943,13 +3847,13 @@
         <v>28340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3958,13 +3862,13 @@
         <v>63514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3883,13 @@
         <v>468310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -3994,13 +3898,13 @@
         <v>491346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -4009,13 +3913,13 @@
         <v>959656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +3987,13 @@
         <v>11599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4098,13 +4002,13 @@
         <v>15150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4113,13 +4017,13 @@
         <v>26749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4038,13 @@
         <v>312447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4149,13 +4053,13 @@
         <v>325870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4164,13 +4068,13 @@
         <v>638317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,10 +4145,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4253,13 +4157,13 @@
         <v>35092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4268,13 +4172,13 @@
         <v>72246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +4196,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4304,13 +4208,13 @@
         <v>634751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>1171</v>
@@ -4319,13 +4223,13 @@
         <v>1259009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4285,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4393,13 +4297,13 @@
         <v>8149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4408,13 +4312,13 @@
         <v>13378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4423,13 +4327,13 @@
         <v>21527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4348,13 @@
         <v>204469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4459,13 +4363,13 @@
         <v>206213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4474,13 +4378,13 @@
         <v>410682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4440,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4548,13 +4452,13 @@
         <v>5128</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4563,13 +4467,13 @@
         <v>10669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4578,13 +4482,13 @@
         <v>15797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4503,13 @@
         <v>268853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4614,13 +4518,13 @@
         <v>268316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4629,13 +4533,13 @@
         <v>537169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4607,13 @@
         <v>30828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -4718,13 +4622,13 @@
         <v>63690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -4733,13 +4637,13 @@
         <v>94518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4658,13 @@
         <v>628652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
@@ -4769,13 +4673,13 @@
         <v>628090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>1164</v>
@@ -4784,13 +4688,13 @@
         <v>1256742</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4762,13 @@
         <v>34318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4873,13 +4777,13 @@
         <v>53381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -4888,13 +4792,13 @@
         <v>87698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4813,13 @@
         <v>744780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -4924,13 +4828,13 @@
         <v>769395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -4939,13 +4843,13 @@
         <v>1514177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4917,13 @@
         <v>162350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5028,13 +4932,13 @@
         <v>219699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>361</v>
@@ -5043,13 +4947,13 @@
         <v>382049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,28 +4968,28 @@
         <v>3251770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
       </c>
       <c r="I29" s="7">
-        <v>3323982</v>
+        <v>3323981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>6121</v>
@@ -5094,13 +4998,13 @@
         <v>6575751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5031,7 @@
         <v>3285</v>
       </c>
       <c r="I30" s="7">
-        <v>3543681</v>
+        <v>3543680</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5156,7 +5060,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +5084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB7D9B7-714E-4DFA-B6EB-376981293289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161AF0AD-8FBA-4670-A68C-53AD405415E4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5197,7 +5101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5304,13 +5208,13 @@
         <v>24849</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5319,13 +5223,13 @@
         <v>22923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5334,13 +5238,13 @@
         <v>47773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5259,13 @@
         <v>267925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5370,13 +5274,13 @@
         <v>263518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>499</v>
@@ -5385,13 +5289,13 @@
         <v>531442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5363,13 @@
         <v>34814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5474,13 +5378,13 @@
         <v>35058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5489,13 +5393,13 @@
         <v>69872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5414,13 @@
         <v>465880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5525,13 +5429,13 @@
         <v>488026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -5540,13 +5444,13 @@
         <v>953906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5518,13 @@
         <v>5304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5629,13 +5533,13 @@
         <v>13897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5644,13 +5548,13 @@
         <v>19201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5569,13 @@
         <v>308607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -5680,13 +5584,13 @@
         <v>314494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -5695,13 +5599,13 @@
         <v>623101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5673,13 @@
         <v>29314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5784,13 +5688,13 @@
         <v>20694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5799,13 +5703,13 @@
         <v>50008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5724,13 @@
         <v>338995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
@@ -5835,13 +5739,13 @@
         <v>366589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5850,13 +5754,13 @@
         <v>705584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,7 +5816,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5924,13 +5828,13 @@
         <v>5867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5939,13 +5843,13 @@
         <v>7149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5954,13 +5858,13 @@
         <v>13016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5879,13 @@
         <v>203319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5990,28 +5894,28 @@
         <v>210438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
       </c>
       <c r="N17" s="7">
-        <v>413757</v>
+        <v>413756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +5957,7 @@
         <v>432</v>
       </c>
       <c r="N18" s="7">
-        <v>426773</v>
+        <v>426772</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6067,7 +5971,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6079,13 +5983,13 @@
         <v>2937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6094,13 +5998,13 @@
         <v>1763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6109,13 +6013,13 @@
         <v>4700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6034,13 @@
         <v>260186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -6145,13 +6049,13 @@
         <v>270445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -6160,13 +6064,13 @@
         <v>530631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6138,13 @@
         <v>20351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6249,13 +6153,13 @@
         <v>26265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6264,13 +6168,13 @@
         <v>46616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6189,13 @@
         <v>629921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6300,13 +6204,13 @@
         <v>659944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>1174</v>
@@ -6315,13 +6219,13 @@
         <v>1289865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6293,13 @@
         <v>21687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6404,13 +6308,13 @@
         <v>32566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -6419,13 +6323,13 @@
         <v>54252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6344,13 @@
         <v>755048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>724</v>
@@ -6455,13 +6359,13 @@
         <v>792442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -6470,13 +6374,13 @@
         <v>1547491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6448,13 @@
         <v>145123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -6559,13 +6463,13 @@
         <v>160315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6574,13 +6478,13 @@
         <v>305438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>417</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6499,13 @@
         <v>3229881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6610,13 +6514,13 @@
         <v>3365896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>6249</v>
@@ -6625,13 +6529,13 @@
         <v>6595778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,7 +6591,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6711,7 +6615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F22533-9088-467C-ABBF-3AF5C42883AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43154BA-1B42-48C4-8B65-34B6E0E231D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6728,7 +6632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6835,13 +6739,13 @@
         <v>798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6850,13 +6754,13 @@
         <v>8397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6865,13 +6769,13 @@
         <v>9194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6790,13 @@
         <v>259500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -6901,13 +6805,13 @@
         <v>263006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -6916,13 +6820,13 @@
         <v>522506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6894,13 @@
         <v>24380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -7005,13 +6909,13 @@
         <v>17041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -7020,10 +6924,10 @@
         <v>41421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -7041,13 +6945,13 @@
         <v>493691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>688</v>
@@ -7056,13 +6960,13 @@
         <v>534496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>468</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -7071,13 +6975,13 @@
         <v>1028187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7049,13 @@
         <v>13908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7160,13 +7064,13 @@
         <v>14235</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7175,13 +7079,13 @@
         <v>28143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7100,13 @@
         <v>296542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -7211,10 +7115,10 @@
         <v>346284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>121</v>
@@ -7226,13 +7130,13 @@
         <v>642827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7204,13 @@
         <v>320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7315,13 +7219,13 @@
         <v>4010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7330,13 +7234,13 @@
         <v>4329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>463</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7255,13 @@
         <v>321046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7366,13 +7270,13 @@
         <v>421823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -7381,13 +7285,13 @@
         <v>742870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>470</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7347,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7455,13 +7359,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7470,13 +7374,13 @@
         <v>2760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7485,13 +7389,13 @@
         <v>2760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,10 +7410,10 @@
         <v>196748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7521,13 +7425,13 @@
         <v>256753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>770</v>
@@ -7536,13 +7440,13 @@
         <v>453500</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,7 +7502,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7610,13 +7514,13 @@
         <v>5660</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7625,13 +7529,13 @@
         <v>5913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7640,10 +7544,10 @@
         <v>11573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>17</v>
@@ -7661,13 +7565,13 @@
         <v>270672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>512</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -7676,13 +7580,13 @@
         <v>269709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7691,13 +7595,13 @@
         <v>540381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>515</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7669,13 @@
         <v>25018</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7780,13 +7684,13 @@
         <v>31095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -7795,13 +7699,13 @@
         <v>56112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>523</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7720,13 @@
         <v>595077</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>904</v>
@@ -7831,13 +7735,13 @@
         <v>765189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>529</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7846,13 +7750,13 @@
         <v>1360266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>530</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,13 +7824,13 @@
         <v>8747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -7935,13 +7839,13 @@
         <v>11533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -7950,13 +7854,13 @@
         <v>20280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>505</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7875,13 @@
         <v>844005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -7986,13 +7890,13 @@
         <v>844479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1779</v>
@@ -8001,13 +7905,13 @@
         <v>1688484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>26</v>
+        <v>512</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +7979,13 @@
         <v>78831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
@@ -8090,13 +7994,13 @@
         <v>94983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>547</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="M28" s="7">
         <v>222</v>
@@ -8105,13 +8009,13 @@
         <v>173814</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8030,13 @@
         <v>3277281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="H29" s="7">
         <v>5176</v>
@@ -8141,13 +8045,13 @@
         <v>3701739</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>8441</v>
@@ -8156,13 +8060,13 @@
         <v>6979020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,7 +8122,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9C06A7-51FF-441F-A1CE-4C681667401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6145F7F5-E760-4FD6-A708-937C8598E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4DCDAC-7C58-44BA-8C07-26D48B283589}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3980BB88-FA28-4164-AFB4-8B0EBF22581D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="544">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -80,16 +80,16 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>7,2%</t>
+    <t>7,37%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>3,46%</t>
@@ -98,1525 +98,1570 @@
     <t>2,04%</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,99%</t>
@@ -1625,10 +1670,7 @@
     <t>97,57%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>97,17%</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1031BF6D-7B53-43B1-9189-ABF7D4C113A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E20B54-4E28-49FA-AEFD-700BA0235157}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2635,7 +2677,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2644,10 +2686,10 @@
         <v>13295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>74</v>
@@ -2683,10 +2725,10 @@
         <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -2695,13 +2737,13 @@
         <v>358161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>725</v>
@@ -2790,7 +2832,7 @@
         <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2799,13 +2841,13 @@
         <v>10731</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2814,13 +2856,13 @@
         <v>17554</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2877,13 @@
         <v>193073</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -2850,13 +2892,13 @@
         <v>191020</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -2865,13 +2907,13 @@
         <v>384093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2969,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2939,13 +2981,13 @@
         <v>4618</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2954,13 +2996,13 @@
         <v>8875</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2969,13 +3011,13 @@
         <v>13493</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3032,13 @@
         <v>265174</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3005,13 +3047,13 @@
         <v>269269</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3020,13 +3062,13 @@
         <v>534443</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3124,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3094,13 +3136,13 @@
         <v>31361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -3109,13 +3151,13 @@
         <v>54350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3124,13 +3166,13 @@
         <v>85711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3187,13 @@
         <v>582680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>574</v>
@@ -3160,13 +3202,13 @@
         <v>583869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1141</v>
@@ -3175,13 +3217,13 @@
         <v>1166549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3279,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3249,13 +3291,13 @@
         <v>43418</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3264,13 +3306,13 @@
         <v>42910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3279,13 +3321,13 @@
         <v>86329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3342,13 @@
         <v>696431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -3315,13 +3357,13 @@
         <v>737603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -3330,13 +3372,13 @@
         <v>1434033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3446,13 @@
         <v>157307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -3419,13 +3461,13 @@
         <v>201060</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -3434,13 +3476,13 @@
         <v>358366</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3497,13 @@
         <v>3108815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3100</v>
@@ -3470,13 +3512,13 @@
         <v>3169222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6158</v>
@@ -3485,13 +3527,13 @@
         <v>6278038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3589,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD839EB2-8A93-4597-944D-1B5606238082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAF34C-B06C-4F2C-8CA5-FD866AAC6B7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3693,39 +3735,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,39 +3780,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,39 +3825,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3874,13 @@
         <v>35174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3847,13 +3889,13 @@
         <v>28340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3862,13 +3904,13 @@
         <v>63514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3925,13 @@
         <v>468310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -3898,13 +3940,13 @@
         <v>491346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -3987,13 +4029,13 @@
         <v>11599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4002,13 +4044,13 @@
         <v>15150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4017,13 +4059,13 @@
         <v>26749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4080,13 @@
         <v>312447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4053,13 +4095,13 @@
         <v>325870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4068,13 +4110,13 @@
         <v>638317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,10 +4187,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4157,13 +4199,13 @@
         <v>35092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4172,13 +4214,13 @@
         <v>72246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,10 +4238,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4208,13 +4250,13 @@
         <v>634751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1171</v>
@@ -4223,13 +4265,13 @@
         <v>1259009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4339,13 @@
         <v>8149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4312,13 +4354,13 @@
         <v>13378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4327,13 +4369,13 @@
         <v>21527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4390,13 @@
         <v>204469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4363,13 +4405,13 @@
         <v>206213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4378,13 +4420,13 @@
         <v>410682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,7 +4482,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4452,13 +4494,13 @@
         <v>5128</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4467,13 +4509,13 @@
         <v>10669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4482,13 +4524,13 @@
         <v>15797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4545,13 @@
         <v>268853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4518,13 +4560,13 @@
         <v>268316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4533,13 +4575,13 @@
         <v>537169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4607,13 +4649,13 @@
         <v>30828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -4622,13 +4664,13 @@
         <v>63690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -4637,13 +4679,13 @@
         <v>94518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4700,13 @@
         <v>628652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
@@ -4673,13 +4715,13 @@
         <v>628090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>1164</v>
@@ -4688,13 +4730,13 @@
         <v>1256742</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4792,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4762,13 +4804,13 @@
         <v>34318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4777,13 +4819,13 @@
         <v>53381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -4792,13 +4834,13 @@
         <v>87698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4855,13 @@
         <v>744780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -4828,13 +4870,13 @@
         <v>769395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>1391</v>
@@ -4843,13 +4885,13 @@
         <v>1514177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4959,13 @@
         <v>162350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -4932,13 +4974,13 @@
         <v>219699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>361</v>
@@ -4947,13 +4989,13 @@
         <v>382049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,28 +5010,28 @@
         <v>3251770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
       </c>
       <c r="I29" s="7">
-        <v>3323981</v>
+        <v>3323982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>6121</v>
@@ -4998,13 +5040,13 @@
         <v>6575751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,7 +5073,7 @@
         <v>3285</v>
       </c>
       <c r="I30" s="7">
-        <v>3543680</v>
+        <v>3543681</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5060,7 +5102,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161AF0AD-8FBA-4670-A68C-53AD405415E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3058B8-7F16-474F-81EA-8DB02CEF4A7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,7 +5143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,13 +5250,13 @@
         <v>24849</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5223,13 +5265,13 @@
         <v>22923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5238,13 +5280,13 @@
         <v>47773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5301,13 @@
         <v>267925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5274,13 +5316,13 @@
         <v>263518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>499</v>
@@ -5289,13 +5331,13 @@
         <v>531442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5405,13 @@
         <v>34814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5378,13 +5420,13 @@
         <v>35058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5393,13 +5435,13 @@
         <v>69872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5456,13 @@
         <v>465880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5429,13 +5471,13 @@
         <v>488026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -5444,13 +5486,13 @@
         <v>953906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5560,13 @@
         <v>5304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5533,13 +5575,13 @@
         <v>13897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5551,10 +5593,10 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5611,13 @@
         <v>308607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -5584,13 +5626,13 @@
         <v>314494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -5602,10 +5644,10 @@
         <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5715,13 @@
         <v>29314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5688,13 +5730,13 @@
         <v>20694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5703,13 +5745,13 @@
         <v>50008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5766,13 @@
         <v>338995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
@@ -5739,13 +5781,13 @@
         <v>366589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5754,13 +5796,13 @@
         <v>705584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5870,13 @@
         <v>5867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5843,13 +5885,13 @@
         <v>7149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5858,13 +5900,13 @@
         <v>13016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5921,13 @@
         <v>203319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5894,13 +5936,13 @@
         <v>210438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
@@ -5909,13 +5951,13 @@
         <v>413756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,7 +6013,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5983,13 +6025,13 @@
         <v>2937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5998,13 +6040,13 @@
         <v>1763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6013,13 +6055,13 @@
         <v>4700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6076,13 @@
         <v>260186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -6049,13 +6091,13 @@
         <v>270445</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -6064,13 +6106,13 @@
         <v>530631</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6168,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6138,13 +6180,13 @@
         <v>20351</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6153,13 +6195,13 @@
         <v>26265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6168,13 +6210,13 @@
         <v>46616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6231,13 @@
         <v>629921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6204,13 +6246,13 @@
         <v>659944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
         <v>1174</v>
@@ -6219,13 +6261,13 @@
         <v>1289865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,7 +6323,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6293,13 +6335,13 @@
         <v>21687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6308,13 +6350,13 @@
         <v>32566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -6323,13 +6365,13 @@
         <v>54252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6386,13 @@
         <v>755048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="H26" s="7">
         <v>724</v>
@@ -6359,13 +6401,13 @@
         <v>792442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -6374,13 +6416,13 @@
         <v>1547491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6490,13 @@
         <v>145123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -6463,13 +6505,13 @@
         <v>160315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6478,13 +6520,13 @@
         <v>305438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6541,13 @@
         <v>3229881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6514,13 +6556,13 @@
         <v>3365896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>6249</v>
@@ -6529,13 +6571,13 @@
         <v>6595778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6633,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6615,7 +6657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43154BA-1B42-48C4-8B65-34B6E0E231D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC98170B-6794-421E-8089-873E89D4CA02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6632,7 +6674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6739,13 +6781,13 @@
         <v>798</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6754,13 +6796,13 @@
         <v>8397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6769,13 +6811,13 @@
         <v>9194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6832,13 @@
         <v>259500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -6805,13 +6847,13 @@
         <v>263006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
@@ -6820,13 +6862,13 @@
         <v>522506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6936,13 @@
         <v>24380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>442</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -6909,13 +6951,13 @@
         <v>17041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -6924,13 +6966,13 @@
         <v>41421</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6987,13 @@
         <v>493691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>688</v>
@@ -6960,13 +7002,13 @@
         <v>534496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
@@ -6975,13 +7017,13 @@
         <v>1028187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7091,13 @@
         <v>13908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7064,13 +7106,13 @@
         <v>14235</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -7079,13 +7121,13 @@
         <v>28143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7142,13 @@
         <v>296542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -7115,13 +7157,13 @@
         <v>346284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -7130,13 +7172,13 @@
         <v>642827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7246,13 @@
         <v>320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7219,13 +7261,13 @@
         <v>4010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7234,13 +7276,13 @@
         <v>4329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7297,13 @@
         <v>321046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -7270,28 +7312,28 @@
         <v>421823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>742870</v>
+        <v>742871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,7 +7375,7 @@
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>747199</v>
+        <v>747200</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7359,13 +7401,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7374,13 +7416,13 @@
         <v>2760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7389,13 +7431,13 @@
         <v>2760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,10 +7452,10 @@
         <v>196748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7425,13 +7467,13 @@
         <v>256753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>770</v>
@@ -7440,13 +7482,13 @@
         <v>453500</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,7 +7544,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7514,13 +7556,13 @@
         <v>5660</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7529,13 +7571,13 @@
         <v>5913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7544,13 +7586,13 @@
         <v>11573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7607,13 @@
         <v>270672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -7580,13 +7622,13 @@
         <v>269709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7595,13 +7637,13 @@
         <v>540381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,7 +7699,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7669,13 +7711,13 @@
         <v>25018</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -7684,28 +7726,28 @@
         <v>31095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>56112</v>
+        <v>56113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7762,13 @@
         <v>595077</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>904</v>
@@ -7735,13 +7777,13 @@
         <v>765189</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7750,13 +7792,13 @@
         <v>1360266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7840,7 @@
         <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1416378</v>
+        <v>1416379</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7812,7 +7854,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7824,13 +7866,13 @@
         <v>8747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -7839,13 +7881,13 @@
         <v>11533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -7854,13 +7896,13 @@
         <v>20280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,13 +7917,13 @@
         <v>844005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -7890,13 +7932,13 @@
         <v>844479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="M26" s="7">
         <v>1779</v>
@@ -7905,13 +7947,13 @@
         <v>1688484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,13 +8021,13 @@
         <v>78831</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
@@ -7994,13 +8036,13 @@
         <v>94983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>222</v>
@@ -8009,13 +8051,13 @@
         <v>173814</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,28 +8072,28 @@
         <v>3277281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H29" s="7">
         <v>5176</v>
       </c>
       <c r="I29" s="7">
-        <v>3701739</v>
+        <v>3701740</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
         <v>8441</v>
@@ -8060,13 +8102,13 @@
         <v>6979020</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,7 +8135,7 @@
         <v>5315</v>
       </c>
       <c r="I30" s="7">
-        <v>3796722</v>
+        <v>3796723</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8122,7 +8164,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6145F7F5-E760-4FD6-A708-937C8598E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2280B785-81E5-4E70-8732-E9069650FA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3980BB88-FA28-4164-AFB4-8B0EBF22581D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48ADAA56-F796-4213-8E9C-CBF645F553A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="555">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -569,7 +569,58 @@
     <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>6,99%</t>
@@ -662,393 +713,387 @@
     <t>97,31%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>93,1%</t>
   </si>
   <si>
@@ -1184,12 +1229,6 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
     <t>2,5%</t>
   </si>
   <si>
@@ -1202,12 +1241,6 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
     <t>94,25%</t>
   </si>
   <si>
@@ -1304,373 +1337,373 @@
     <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E20B54-4E28-49FA-AEFD-700BA0235157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D6525-8FDD-4E15-AB48-9EBA9CB9A4F4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3369,7 +3402,7 @@
         <v>1391</v>
       </c>
       <c r="N26" s="7">
-        <v>1434033</v>
+        <v>1434032</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>155</v>
@@ -3420,7 +3453,7 @@
         <v>1474</v>
       </c>
       <c r="N27" s="7">
-        <v>1520362</v>
+        <v>1520361</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -3613,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAF34C-B06C-4F2C-8CA5-FD866AAC6B7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA23EC-F860-4E24-9F2F-AAE5B5CD21AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3731,43 +3764,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21735</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21871</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43606</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,43 +3815,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="D5" s="7">
+        <v>270874</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="I5" s="7">
+        <v>261138</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>491</v>
+      </c>
+      <c r="N5" s="7">
+        <v>532012</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,43 +3866,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D6" s="7">
+        <v>292609</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283009</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575618</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3925,13 @@
         <v>35174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3889,13 +3940,13 @@
         <v>28340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3904,13 +3955,13 @@
         <v>63514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +3976,10 @@
         <v>468310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>79</v>
@@ -3940,10 +3991,10 @@
         <v>491346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>43</v>
@@ -3955,13 +4006,13 @@
         <v>959656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,10 +4083,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4044,13 +4095,13 @@
         <v>15150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4059,13 +4110,13 @@
         <v>26749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +4134,10 @@
         <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4095,13 +4146,13 @@
         <v>325870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4110,13 +4161,13 @@
         <v>638317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4229,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>37154</v>
+        <v>15419</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>35092</v>
+        <v>13220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>72246</v>
+        <v>28640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +4280,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>583</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7">
-        <v>624258</v>
+        <v>353384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
-        <v>588</v>
+        <v>356</v>
       </c>
       <c r="I14" s="7">
-        <v>634751</v>
+        <v>373615</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
-        <v>1171</v>
+        <v>680</v>
       </c>
       <c r="N14" s="7">
-        <v>1259009</v>
+        <v>726998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +4331,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>619</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7">
-        <v>661412</v>
+        <v>368803</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4295,10 +4346,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>669843</v>
+        <v>386835</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4310,10 +4361,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1240</v>
+        <v>708</v>
       </c>
       <c r="N15" s="7">
-        <v>1331255</v>
+        <v>755638</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4339,13 +4390,13 @@
         <v>8149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4354,13 +4405,13 @@
         <v>13378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4369,13 +4420,13 @@
         <v>21527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4441,13 @@
         <v>204469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4405,13 +4456,13 @@
         <v>206213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -4420,13 +4471,13 @@
         <v>410682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4545,13 @@
         <v>5128</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4509,13 +4560,13 @@
         <v>10669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4524,10 +4575,10 @@
         <v>15797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>147</v>
@@ -4545,13 +4596,13 @@
         <v>268853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4560,13 +4611,13 @@
         <v>268316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>513</v>
@@ -4575,13 +4626,13 @@
         <v>537169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4700,13 @@
         <v>30828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -4664,13 +4715,13 @@
         <v>63690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -4679,13 +4730,13 @@
         <v>94518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4751,13 @@
         <v>628652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
@@ -4715,13 +4766,13 @@
         <v>628090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>1164</v>
@@ -4730,13 +4781,13 @@
         <v>1256742</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4855,13 @@
         <v>34318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4819,7 +4870,7 @@
         <v>53381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>52</v>
@@ -4834,13 +4885,13 @@
         <v>87698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4906,13 @@
         <v>744780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -4870,7 +4921,7 @@
         <v>769395</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>137</v>
@@ -4885,10 +4936,10 @@
         <v>1514177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>100</v>
@@ -4959,13 +5010,13 @@
         <v>162350</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -4974,13 +5025,13 @@
         <v>219699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>361</v>
@@ -4989,13 +5040,13 @@
         <v>382049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5061,13 @@
         <v>3251770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
@@ -5025,28 +5076,28 @@
         <v>3323982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>6121</v>
       </c>
       <c r="N29" s="7">
-        <v>6575751</v>
+        <v>6575752</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5139,7 @@
         <v>6482</v>
       </c>
       <c r="N30" s="7">
-        <v>6957800</v>
+        <v>6957801</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5126,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3058B8-7F16-474F-81EA-8DB02CEF4A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB98B22F-1CCC-448C-ABEC-47A354698308}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5143,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5253,10 +5304,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5265,13 +5316,13 @@
         <v>22923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5280,13 +5331,13 @@
         <v>47773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,10 +5355,10 @@
         <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5316,13 +5367,13 @@
         <v>263518</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>499</v>
@@ -5331,13 +5382,13 @@
         <v>531442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5456,13 @@
         <v>34814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5420,13 +5471,13 @@
         <v>35058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -5435,13 +5486,13 @@
         <v>69872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5507,13 @@
         <v>465880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -5471,13 +5522,13 @@
         <v>488026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -5486,13 +5537,13 @@
         <v>953906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5611,13 @@
         <v>5304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5575,13 +5626,13 @@
         <v>13897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5593,10 +5644,10 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5662,13 @@
         <v>308607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -5626,10 +5677,10 @@
         <v>314494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>102</v>
@@ -5644,10 +5695,10 @@
         <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5766,13 @@
         <v>29314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5730,13 +5781,13 @@
         <v>20694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5745,13 +5796,13 @@
         <v>50008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5817,13 @@
         <v>338995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>337</v>
@@ -5781,13 +5832,13 @@
         <v>366589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5796,13 +5847,13 @@
         <v>705584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,10 +5921,10 @@
         <v>5867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>109</v>
@@ -5885,13 +5936,13 @@
         <v>7149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -5900,13 +5951,13 @@
         <v>13016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5972,13 @@
         <v>203319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5936,28 +5987,28 @@
         <v>210438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
       </c>
       <c r="N17" s="7">
-        <v>413756</v>
+        <v>413757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +6050,7 @@
         <v>432</v>
       </c>
       <c r="N18" s="7">
-        <v>426772</v>
+        <v>426773</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6028,10 +6079,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6043,10 +6094,10 @@
         <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6055,13 +6106,13 @@
         <v>4700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,10 +6130,10 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -6094,10 +6145,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -6106,13 +6157,13 @@
         <v>530631</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6231,13 @@
         <v>20351</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6195,13 +6246,13 @@
         <v>26265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6210,10 +6261,10 @@
         <v>46616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>147</v>
@@ -6231,13 +6282,13 @@
         <v>629921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6246,13 +6297,13 @@
         <v>659944</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>1174</v>
@@ -6261,13 +6312,13 @@
         <v>1289865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6386,13 @@
         <v>21687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6350,10 +6401,10 @@
         <v>32566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>19</v>
@@ -6365,13 +6416,13 @@
         <v>54252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6437,13 @@
         <v>755048</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>724</v>
@@ -6401,13 +6452,13 @@
         <v>792442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -6416,13 +6467,13 @@
         <v>1547491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6541,13 @@
         <v>145123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H28" s="7">
         <v>155</v>
@@ -6505,13 +6556,13 @@
         <v>160315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6520,13 +6571,13 @@
         <v>305438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6592,13 @@
         <v>3229881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6556,13 +6607,13 @@
         <v>3365896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>6249</v>
@@ -6571,10 +6622,10 @@
         <v>6595778</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>43</v>
@@ -6657,7 +6708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC98170B-6794-421E-8089-873E89D4CA02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B382BBE3-C8AE-4AB5-BBDC-7A899CCAAF6F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6674,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6778,46 +6829,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>798</v>
+        <v>844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>8397</v>
+        <v>11089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>9194</v>
+        <v>11933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,46 +6880,46 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>259500</v>
+        <v>310599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
       </c>
       <c r="I5" s="7">
-        <v>263006</v>
+        <v>278546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>852</v>
       </c>
       <c r="N5" s="7">
-        <v>522506</v>
+        <v>589144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6931,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6895,7 +6946,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6910,7 +6961,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6933,46 +6984,46 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>24380</v>
+        <v>25648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>17041</v>
+        <v>15893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>41421</v>
+        <v>41541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,46 +7035,46 @@
         <v>363</v>
       </c>
       <c r="D8" s="7">
-        <v>493691</v>
+        <v>491589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>688</v>
       </c>
       <c r="I8" s="7">
-        <v>534496</v>
+        <v>496514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="M8" s="7">
         <v>1051</v>
       </c>
       <c r="N8" s="7">
-        <v>1028187</v>
+        <v>988103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,7 +7086,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518071</v>
+        <v>517237</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7050,7 +7101,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>551537</v>
+        <v>512407</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7065,7 +7116,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1069608</v>
+        <v>1029644</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7088,46 +7139,46 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>13908</v>
+        <v>13924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>14235</v>
+        <v>13443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>28143</v>
+        <v>27367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,46 +7190,46 @@
         <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>296542</v>
+        <v>290882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
       </c>
       <c r="I11" s="7">
-        <v>346284</v>
+        <v>323794</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
       </c>
       <c r="N11" s="7">
-        <v>642827</v>
+        <v>614676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,7 +7241,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>310450</v>
+        <v>304806</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7205,7 +7256,7 @@
         <v>516</v>
       </c>
       <c r="I12" s="7">
-        <v>360519</v>
+        <v>337237</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7220,7 +7271,7 @@
         <v>861</v>
       </c>
       <c r="N12" s="7">
-        <v>670970</v>
+        <v>642043</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7243,46 +7294,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4010</v>
+        <v>3742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>4329</v>
+        <v>4068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,46 +7345,46 @@
         <v>289</v>
       </c>
       <c r="D14" s="7">
-        <v>321046</v>
+        <v>311450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
       </c>
       <c r="I14" s="7">
-        <v>421823</v>
+        <v>469657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>742871</v>
+        <v>781106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,7 +7396,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321366</v>
+        <v>311776</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7360,7 +7411,7 @@
         <v>595</v>
       </c>
       <c r="I15" s="7">
-        <v>425833</v>
+        <v>473399</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7375,7 +7426,7 @@
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>747200</v>
+        <v>785174</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7401,43 +7452,43 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2760</v>
+        <v>2580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>485</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2760</v>
+        <v>2580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7500,13 @@
         <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7464,31 +7515,31 @@
         <v>491</v>
       </c>
       <c r="I17" s="7">
-        <v>256753</v>
+        <v>256199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>491</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>770</v>
       </c>
       <c r="N17" s="7">
-        <v>453500</v>
+        <v>434941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,7 +7551,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7515,7 +7566,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7530,7 +7581,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7553,46 +7604,46 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>5660</v>
+        <v>5452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>509</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>5913</v>
+        <v>5592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>11573</v>
+        <v>11044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,46 +7655,46 @@
         <v>360</v>
       </c>
       <c r="D20" s="7">
-        <v>270672</v>
+        <v>263317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
       </c>
       <c r="I20" s="7">
-        <v>269709</v>
+        <v>251464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
       </c>
       <c r="N20" s="7">
-        <v>540381</v>
+        <v>514781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,7 +7706,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276332</v>
+        <v>268769</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7670,7 +7721,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7685,7 +7736,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>551954</v>
+        <v>525825</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7708,46 +7759,46 @@
         <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>25018</v>
+        <v>24246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>31095</v>
+        <v>28794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>56113</v>
+        <v>53040</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,46 +7810,46 @@
         <v>567</v>
       </c>
       <c r="D23" s="7">
-        <v>595077</v>
+        <v>592380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>528</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>904</v>
       </c>
       <c r="I23" s="7">
-        <v>765189</v>
+        <v>813312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
       </c>
       <c r="N23" s="7">
-        <v>1360266</v>
+        <v>1405692</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,7 +7861,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>620095</v>
+        <v>616626</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7825,7 +7876,7 @@
         <v>950</v>
       </c>
       <c r="I24" s="7">
-        <v>796284</v>
+        <v>842106</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7840,7 +7891,7 @@
         <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1416379</v>
+        <v>1458732</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7863,46 +7914,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>8747</v>
+        <v>7408</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>11533</v>
+        <v>9854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
       </c>
       <c r="N25" s="7">
-        <v>20280</v>
+        <v>17261</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,46 +7965,46 @@
         <v>750</v>
       </c>
       <c r="D26" s="7">
-        <v>844005</v>
+        <v>915689</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
       </c>
       <c r="I26" s="7">
-        <v>844479</v>
+        <v>697267</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M26" s="7">
         <v>1779</v>
       </c>
       <c r="N26" s="7">
-        <v>1688484</v>
+        <v>1612957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,7 +8016,7 @@
         <v>757</v>
       </c>
       <c r="D27" s="7">
-        <v>852752</v>
+        <v>923097</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7980,7 +8031,7 @@
         <v>1048</v>
       </c>
       <c r="I27" s="7">
-        <v>856012</v>
+        <v>707121</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7995,7 +8046,7 @@
         <v>1805</v>
       </c>
       <c r="N27" s="7">
-        <v>1708764</v>
+        <v>1630218</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8018,46 +8069,46 @@
         <v>83</v>
       </c>
       <c r="D28" s="7">
-        <v>78831</v>
+        <v>77848</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>241</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
       </c>
       <c r="I28" s="7">
-        <v>94983</v>
+        <v>90986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>534</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="M28" s="7">
         <v>222</v>
       </c>
       <c r="N28" s="7">
-        <v>173814</v>
+        <v>168834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,46 +8120,46 @@
         <v>3265</v>
       </c>
       <c r="D29" s="7">
-        <v>3277281</v>
+        <v>3354647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>539</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>5176</v>
       </c>
       <c r="I29" s="7">
-        <v>3701740</v>
+        <v>3586753</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>8441</v>
       </c>
       <c r="N29" s="7">
-        <v>6979020</v>
+        <v>6941400</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,7 +8171,7 @@
         <v>3348</v>
       </c>
       <c r="D30" s="7">
-        <v>3356112</v>
+        <v>3432495</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8135,7 +8186,7 @@
         <v>5315</v>
       </c>
       <c r="I30" s="7">
-        <v>3796723</v>
+        <v>3677739</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8150,7 +8201,7 @@
         <v>8663</v>
       </c>
       <c r="N30" s="7">
-        <v>7152834</v>
+        <v>7110234</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
